--- a/dashboard.xlsx
+++ b/dashboard.xlsx
@@ -6,8 +6,8 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="SF_shipp" sheetId="2" r:id="rId2"/>
-    <x:sheet name="SF_hub" sheetId="3" r:id="rId3"/>
+    <x:sheet name="SF_hub" sheetId="2" r:id="rId2"/>
+    <x:sheet name="SF_word" sheetId="3" r:id="rId3"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -53,7 +53,7 @@
     <x:t>TestScenario_1.TestCase_1</x:t>
   </x:si>
   <x:si>
-    <x:t>New Lead</x:t>
+    <x:t>New Contact</x:t>
   </x:si>
   <x:si>
     <x:t>User Needs to Login to Salesforce, from the browser with correct credentials</x:t>
@@ -62,28 +62,40 @@
     <x:t>Step 1</x:t>
   </x:si>
   <x:si>
-    <x:t>Click on the Lead tab, and click on New button</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be navigated to the New  Lead Page</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Valid value for required field First Name, Last Name </x:t>
+    <x:t>Click on the Contact tab, and click on New button</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be navigated to the New  Contact Page</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for required field Account Name </x:t>
   </x:si>
   <x:si>
     <x:t>Step 2</x:t>
   </x:si>
   <x:si>
-    <x:t>Input valid value in the  First Name, Last Name field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to input value for the First Name, Last Name field.</x:t>
+    <x:t>Input valid value in the  Account Name field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the Account Name field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for required field Salutation, First Name, Last Name </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Salutation, First Name, Last Name field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the Salutation, First Name, Last Name field.</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">Valid value for required field  </x:t>
   </x:si>
   <x:si>
-    <x:t>Step 3</x:t>
+    <x:t>Step 4</x:t>
   </x:si>
   <x:si>
     <x:t>Input valid value in the   field.</x:t>
@@ -92,37 +104,13 @@
     <x:t>User should be able to input value for the  field.</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">Valid value for required field Lead Status </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input valid value in the  Lead Status field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to input value for the Lead Status field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Valid value for required field Company </x:t>
-  </x:si>
-  <x:si>
     <x:t>Step 5</x:t>
   </x:si>
   <x:si>
-    <x:t>Input valid value in the  Company field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to input value for the Company field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on Save button to save Lead with fields</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to validate that a New Lead is created</x:t>
+    <x:t>Click on Save button to save Contact with fields</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate that a New Contact is created</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -225,8 +213,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table11" displayName="Table11" ref="A1:J7" totalsRowShown="0">
-  <x:autoFilter ref="A1:J7"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table11" displayName="Table11" ref="A1:J6" totalsRowShown="0">
+  <x:autoFilter ref="A1:J6"/>
   <x:tableColumns count="10">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -609,7 +597,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J7"/>
+  <x:dimension ref="A1:J6"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -617,12 +605,12 @@
   <x:cols>
     <x:col min="1" max="1" width="15.980625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="26.270625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="12.980625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="14.270625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="69.980624999999989" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="48.840625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="58.700625" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="7.840625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="48.840625" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="64.700625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="58.700625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="74.550625" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="20.410625" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="16.980625" style="0" customWidth="1"/>
   </x:cols>
@@ -750,38 +738,18 @@
       <x:c r="B6" s="0" t="s"/>
       <x:c r="C6" s="0" t="s"/>
       <x:c r="D6" s="0" t="s"/>
-      <x:c r="E6" s="0" t="s">
+      <x:c r="E6" s="0" t="s"/>
+      <x:c r="F6" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="F6" s="0" t="s">
+      <x:c r="G6" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="G6" s="0" t="s">
+      <x:c r="H6" s="0" t="s">
         <x:v>31</x:v>
-      </x:c>
-      <x:c r="H6" s="0" t="s">
-        <x:v>32</x:v>
       </x:c>
       <x:c r="I6" s="0" t="s"/>
       <x:c r="J6" s="0" t="s"/>
-    </x:row>
-    <x:row r="7" spans="1:10">
-      <x:c r="A7" s="0" t="s"/>
-      <x:c r="B7" s="0" t="s"/>
-      <x:c r="C7" s="0" t="s"/>
-      <x:c r="D7" s="0" t="s"/>
-      <x:c r="E7" s="0" t="s"/>
-      <x:c r="F7" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="G7" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="H7" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="I7" s="0" t="s"/>
-      <x:c r="J7" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
